--- a/data/epp-16-status-data.xlsx
+++ b/data/epp-16-status-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/icann/rst-test-specs/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1006F2-6A79-4849-97CE-04163B216DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F11DD21-6D0B-1F46-86A6-0EB84268B1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -123,71 +123,70 @@
     <t>rem</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>clientUpdateProhibited</t>
+  </si>
+  <si>
+    <t>serverUpdateProhibited</t>
+  </si>
+  <si>
+    <t>clientDeleteProhibited</t>
+  </si>
+  <si>
+    <t>clientHold</t>
+  </si>
+  <si>
+    <t>linked</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>pendingCreate</t>
+  </si>
+  <si>
+    <t>pendingDelete</t>
+  </si>
+  <si>
+    <t>pendingTransfer</t>
+  </si>
+  <si>
+    <t>pendingUpdate</t>
+  </si>
+  <si>
+    <t>serverDeleteProhibited</t>
+  </si>
+  <si>
+    <t>invalidStatusCode</t>
+  </si>
+  <si>
+    <t>Status Code</t>
+  </si>
+  <si>
+    <t>clientRenewProhibited</t>
+  </si>
+  <si>
+    <t>clientTransferProhibited</t>
+  </si>
+  <si>
+    <t>EPP_DOMAIN_UPDATE_SERVER_ACCEPTS_INVALID_STATUS_CODE</t>
+  </si>
+  <si>
+    <t>serverRenewProhibited</t>
+  </si>
+  <si>
+    <t>serverTransferProhibited</t>
+  </si>
+  <si>
+    <t>Status Code Data Provider for epp-16</t>
+  </si>
+  <si>
     <t>* Values in {parentheses} are not literal values, they indicate that an appropriate value should be computed.
     * A value of `{EMPTY}` indicates an empty string.
-* Any row containing an "action" value of "add" and a passOrFail value of "pass" should result in an object property being added, which will be validated using an &lt;info&gt; command.
-* An &lt;update&gt; command will then be used to remove the property, which MUST succeed.
+* Any row containing an "action" value of "add" and a passOrFail value of "pass" should result in an object property being added, which will be validated using an `&lt;info&gt;` command.
 * The cell values for rows with action=rem do not occur in previous rows, so the objects should not have those properties, meaning a successful response is an error.</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>clientUpdateProhibited</t>
-  </si>
-  <si>
-    <t>serverUpdateProhibited</t>
-  </si>
-  <si>
-    <t>clientDeleteProhibited</t>
-  </si>
-  <si>
-    <t>clientHold</t>
-  </si>
-  <si>
-    <t>linked</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>pendingCreate</t>
-  </si>
-  <si>
-    <t>pendingDelete</t>
-  </si>
-  <si>
-    <t>pendingTransfer</t>
-  </si>
-  <si>
-    <t>pendingUpdate</t>
-  </si>
-  <si>
-    <t>serverDeleteProhibited</t>
-  </si>
-  <si>
-    <t>invalidStatusCode</t>
-  </si>
-  <si>
-    <t>Status Code</t>
-  </si>
-  <si>
-    <t>clientRenewProhibited</t>
-  </si>
-  <si>
-    <t>clientTransferProhibited</t>
-  </si>
-  <si>
-    <t>EPP_DOMAIN_UPDATE_SERVER_ACCEPTS_INVALID_STATUS_CODE</t>
-  </si>
-  <si>
-    <t>serverRenewProhibited</t>
-  </si>
-  <si>
-    <t>serverTransferProhibited</t>
-  </si>
-  <si>
-    <t>Status Code Data Provider for epp-16</t>
   </si>
 </sst>
 </file>
@@ -271,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,6 +282,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -301,12 +303,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -765,7 +761,7 @@
   <dimension ref="B2:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -779,47 +775,47 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="2:8" ht="115" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="2:8" ht="115" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="2:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -831,7 +827,7 @@
     <row r="8" spans="2:8" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
@@ -858,8 +854,8 @@
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>17</v>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
@@ -872,8 +868,8 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>17</v>
+      <c r="C11" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -887,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -902,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
@@ -917,7 +913,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
@@ -931,8 +927,8 @@
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>28</v>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -946,8 +942,8 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>29</v>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>2</v>
@@ -962,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
@@ -976,8 +972,8 @@
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>15</v>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>2</v>
@@ -991,8 +987,8 @@
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>15</v>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
@@ -1007,13 +1003,13 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20"/>
     </row>
@@ -1022,43 +1018,41 @@
         <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="12"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="12"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
@@ -1066,13 +1060,13 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
@@ -1080,13 +1074,13 @@
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
@@ -1094,13 +1088,13 @@
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
@@ -1108,13 +1102,13 @@
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
@@ -1122,13 +1116,13 @@
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
@@ -1136,13 +1130,13 @@
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
@@ -1150,13 +1144,13 @@
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
@@ -1164,7 +1158,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>2</v>
@@ -1178,7 +1172,7 @@
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>
@@ -1192,7 +1186,7 @@
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>2</v>
@@ -1206,7 +1200,7 @@
         <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>1</v>
@@ -1220,7 +1214,7 @@
         <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>2</v>
@@ -1234,7 +1228,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1</v>
@@ -1248,7 +1242,7 @@
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>2</v>
@@ -1262,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>1</v>
@@ -1276,7 +1270,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>2</v>
@@ -1290,7 +1284,7 @@
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>1</v>
@@ -1304,7 +1298,7 @@
         <v>12</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>1</v>

--- a/data/epp-16-status-data.xlsx
+++ b/data/epp-16-status-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F11DD21-6D0B-1F46-86A6-0EB84268B1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F797A89B-461B-FC4F-B6D4-CC66F5FE5071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -761,7 +761,7 @@
   <dimension ref="B2:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1000,39 +1000,40 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="H21"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -1040,13 +1041,14 @@
       <c r="E22" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="H22"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
@@ -1060,7 +1062,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -1074,7 +1076,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
@@ -1088,7 +1090,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
@@ -1102,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -1116,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
@@ -1130,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1</v>
@@ -1144,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -1155,30 +1157,30 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -1186,7 +1188,7 @@
         <v>12</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>2</v>
@@ -1200,7 +1202,7 @@
         <v>12</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>1</v>
@@ -1214,7 +1216,7 @@
         <v>12</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>2</v>
@@ -1228,7 +1230,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1</v>
@@ -1242,7 +1244,7 @@
         <v>12</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>2</v>
@@ -1256,7 +1258,7 @@
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>1</v>
@@ -1270,7 +1272,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>2</v>
@@ -1284,7 +1286,7 @@
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>1</v>
@@ -1308,8 +1310,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H13:H22">
-    <sortCondition ref="H13:H22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H13:H24">
+    <sortCondition ref="H13:H24"/>
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="B2:E2"/>

--- a/data/epp-16-status-data.xlsx
+++ b/data/epp-16-status-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F797A89B-461B-FC4F-B6D4-CC66F5FE5071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6076A8EC-9F51-6E48-A491-E11FA8F83C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -62,52 +62,6 @@
     <t>Error code if expected result is not produced</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes for authors:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-* The name of the file (minus ".xlsx") is used as the ID of the data provider in the spec.
-* Any text in the box above is treated as Markdown and incorporated into the specs as the description for this data provider.
-* Do not change anything except the contents of the table below and the box above.
-* All cells </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MUST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> have the "Text" type.
-* Empty cells do not indicate an empty string (the "{EMPTY}" value indicates that), but will be replaced with the value in the previous row when this file is converted into YAML.
-* This means that all cells in the first row MUST be populated.</t>
-    </r>
-  </si>
-  <si>
     <t>EPP_UNEXPECTED_COMMAND_FAILURE</t>
   </si>
   <si>
@@ -187,13 +141,23 @@
     * A value of `{EMPTY}` indicates an empty string.
 * Any row containing an "action" value of "add" and a passOrFail value of "pass" should result in an object property being added, which will be validated using an `&lt;info&gt;` command.
 * The cell values for rows with action=rem do not occur in previous rows, so the objects should not have those properties, meaning a successful response is an error.</t>
+  </si>
+  <si>
+    <t>Notes for authors:
+* The name of the file (minus ".xlsx") is used as the ID of the data provider in the spec.
+* Any text in the box above is treated as Markdown and incorporated into the specs as the description for this data provider.
+* Do not change anything except the contents of the table below and the box above.
+* All cells MUST have the "Text" type.
+* Empty cells do not indicate an empty string (the "{EMPTY}" value indicates that), but will be replaced with the value in the previous row when this file is converted into YAML.
+* This means that all cells in the first row MUST be populated.
+* IP addresses must be taken from the prefixes 208.77.190.192/26 and 2602:800:900e:1257::/64 and should not be reused.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -218,13 +182,6 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -761,7 +718,7 @@
   <dimension ref="B2:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -776,7 +733,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="25" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -784,7 +741,7 @@
     </row>
     <row r="3" spans="2:8" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
@@ -796,9 +753,9 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="2:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="148" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -812,10 +769,10 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
@@ -827,7 +784,7 @@
     <row r="8" spans="2:8" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
@@ -852,461 +809,461 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/epp-16-status-data.xlsx
+++ b/data/epp-16-status-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6076A8EC-9F51-6E48-A491-E11FA8F83C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F198E4-DFD7-7646-B2DB-533DF63C7196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
   <si>
     <t>errorCode</t>
   </si>
@@ -381,8 +381,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:E41" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="B7:E41" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:E32" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="B7:E32" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -715,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4FAA1-1060-DC4E-8B86-313DD9301EC2}">
-  <dimension ref="B2:H41"/>
+  <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -825,22 +825,23 @@
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>15</v>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H11"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
@@ -854,14 +855,14 @@
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13"/>
     </row>
@@ -870,7 +871,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>2</v>
@@ -884,8 +885,8 @@
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>26</v>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -897,10 +898,10 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>2</v>
@@ -915,13 +916,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H17"/>
     </row>
@@ -930,67 +931,63 @@
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -998,14 +995,13 @@
       <c r="E22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H22"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
@@ -1019,7 +1015,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -1033,7 +1029,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
@@ -1047,7 +1043,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
@@ -1061,7 +1057,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -1072,63 +1068,63 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>24</v>
@@ -1137,138 +1133,12 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H13:H24">
-    <sortCondition ref="H13:H24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H12:H19">
+    <sortCondition ref="H12:H19"/>
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="B2:E2"/>
